--- a/natmiOut/OldD7/LR-pairs_lrc2p/Tnf-Tnfrsf1b.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Tnf-Tnfrsf1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,19 +79,19 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Tnf</t>
   </si>
   <si>
     <t>Tnfrsf1b</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.67187473357195</v>
+        <v>5.983973333333334</v>
       </c>
       <c r="H2">
-        <v>5.67187473357195</v>
+        <v>17.95192</v>
       </c>
       <c r="I2">
-        <v>0.1440824037695825</v>
+        <v>0.1291745374956022</v>
       </c>
       <c r="J2">
-        <v>0.1440824037695825</v>
+        <v>0.1291745374956022</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.7468931181356</v>
+        <v>11.84297166666667</v>
       </c>
       <c r="N2">
-        <v>10.7468931181356</v>
+        <v>35.528915</v>
       </c>
       <c r="O2">
-        <v>0.1230379893023516</v>
+        <v>0.1201507426883529</v>
       </c>
       <c r="P2">
-        <v>0.1230379893023516</v>
+        <v>0.1201507426883529</v>
       </c>
       <c r="Q2">
-        <v>60.95503154115158</v>
+        <v>70.86802664075556</v>
       </c>
       <c r="R2">
-        <v>60.95503154115158</v>
+        <v>637.8122397668</v>
       </c>
       <c r="S2">
-        <v>0.01772760925365899</v>
+        <v>0.0155204166165211</v>
       </c>
       <c r="T2">
-        <v>0.01772760925365899</v>
+        <v>0.0155204166165211</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.67187473357195</v>
+        <v>5.983973333333334</v>
       </c>
       <c r="H3">
-        <v>5.67187473357195</v>
+        <v>17.95192</v>
       </c>
       <c r="I3">
-        <v>0.1440824037695825</v>
+        <v>0.1291745374956022</v>
       </c>
       <c r="J3">
-        <v>0.1440824037695825</v>
+        <v>0.1291745374956022</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.8761564486088</v>
+        <v>10.940628</v>
       </c>
       <c r="N3">
-        <v>10.8761564486088</v>
+        <v>32.821884</v>
       </c>
       <c r="O3">
-        <v>0.1245178868036219</v>
+        <v>0.1109961770302011</v>
       </c>
       <c r="P3">
-        <v>0.1245178868036219</v>
+        <v>0.1109961770302011</v>
       </c>
       <c r="Q3">
-        <v>61.68819695923988</v>
+        <v>65.46842620192</v>
       </c>
       <c r="R3">
-        <v>61.68819695923988</v>
+        <v>589.21583581728</v>
       </c>
       <c r="S3">
-        <v>0.01794083644297462</v>
+        <v>0.01433787983165622</v>
       </c>
       <c r="T3">
-        <v>0.01794083644297462</v>
+        <v>0.01433787983165622</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.67187473357195</v>
+        <v>5.983973333333334</v>
       </c>
       <c r="H4">
-        <v>5.67187473357195</v>
+        <v>17.95192</v>
       </c>
       <c r="I4">
-        <v>0.1440824037695825</v>
+        <v>0.1291745374956022</v>
       </c>
       <c r="J4">
-        <v>0.1440824037695825</v>
+        <v>0.1291745374956022</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>63.916058847432</v>
+        <v>73.27090866666667</v>
       </c>
       <c r="N4">
-        <v>63.916058847432</v>
+        <v>219.812726</v>
       </c>
       <c r="O4">
-        <v>0.7317559854994725</v>
+        <v>0.7433568483938062</v>
       </c>
       <c r="P4">
-        <v>0.7317559854994725</v>
+        <v>0.7433568483938062</v>
       </c>
       <c r="Q4">
-        <v>362.5238792462474</v>
+        <v>438.4511635704357</v>
       </c>
       <c r="R4">
-        <v>362.5238792462474</v>
+        <v>3946.06047213392</v>
       </c>
       <c r="S4">
-        <v>0.1054331613635437</v>
+        <v>0.09602277708545842</v>
       </c>
       <c r="T4">
-        <v>0.1054331613635437</v>
+        <v>0.09602277708545842</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.67187473357195</v>
+        <v>5.983973333333334</v>
       </c>
       <c r="H5">
-        <v>5.67187473357195</v>
+        <v>17.95192</v>
       </c>
       <c r="I5">
-        <v>0.1440824037695825</v>
+        <v>0.1291745374956022</v>
       </c>
       <c r="J5">
-        <v>0.1440824037695825</v>
+        <v>0.1291745374956022</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.80702897861173</v>
+        <v>2.513102666666667</v>
       </c>
       <c r="N5">
-        <v>1.80702897861173</v>
+        <v>7.539308</v>
       </c>
       <c r="O5">
-        <v>0.02068813839455401</v>
+        <v>0.02549623188763971</v>
       </c>
       <c r="P5">
-        <v>0.02068813839455401</v>
+        <v>0.02549623188763971</v>
       </c>
       <c r="Q5">
-        <v>10.2492420066202</v>
+        <v>15.03833934126222</v>
       </c>
       <c r="R5">
-        <v>10.2492420066202</v>
+        <v>135.34505407136</v>
       </c>
       <c r="S5">
-        <v>0.002980796709405133</v>
+        <v>0.003293463961966485</v>
       </c>
       <c r="T5">
-        <v>0.002980796709405133</v>
+        <v>0.003293463961966485</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -782,49 +782,49 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>33.6936174096772</v>
+        <v>0.2635153333333333</v>
       </c>
       <c r="H6">
-        <v>33.6936174096772</v>
+        <v>0.790546</v>
       </c>
       <c r="I6">
-        <v>0.8559175962304176</v>
+        <v>0.005688439672135256</v>
       </c>
       <c r="J6">
-        <v>0.8559175962304176</v>
+        <v>0.005688439672135256</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.7468931181356</v>
+        <v>11.84297166666667</v>
       </c>
       <c r="N6">
-        <v>10.7468931181356</v>
+        <v>35.528915</v>
       </c>
       <c r="O6">
-        <v>0.1230379893023516</v>
+        <v>0.1201507426883529</v>
       </c>
       <c r="P6">
-        <v>0.1230379893023516</v>
+        <v>0.1201507426883529</v>
       </c>
       <c r="Q6">
-        <v>362.1017050651538</v>
+        <v>3.120804626398888</v>
       </c>
       <c r="R6">
-        <v>362.1017050651538</v>
+        <v>28.08724163759</v>
       </c>
       <c r="S6">
-        <v>0.1053103800486926</v>
+        <v>0.0006834702513449419</v>
       </c>
       <c r="T6">
-        <v>0.1053103800486926</v>
+        <v>0.0006834702513449419</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>33.6936174096772</v>
+        <v>0.2635153333333333</v>
       </c>
       <c r="H7">
-        <v>33.6936174096772</v>
+        <v>0.790546</v>
       </c>
       <c r="I7">
-        <v>0.8559175962304176</v>
+        <v>0.005688439672135256</v>
       </c>
       <c r="J7">
-        <v>0.8559175962304176</v>
+        <v>0.005688439672135256</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.8761564486088</v>
+        <v>10.940628</v>
       </c>
       <c r="N7">
-        <v>10.8761564486088</v>
+        <v>32.821884</v>
       </c>
       <c r="O7">
-        <v>0.1245178868036219</v>
+        <v>0.1109961770302011</v>
       </c>
       <c r="P7">
-        <v>0.1245178868036219</v>
+        <v>0.1109961770302011</v>
       </c>
       <c r="Q7">
-        <v>366.4570542672184</v>
+        <v>2.883023234296</v>
       </c>
       <c r="R7">
-        <v>366.4570542672184</v>
+        <v>25.947209108664</v>
       </c>
       <c r="S7">
-        <v>0.1065770503606473</v>
+        <v>0.000631395056873944</v>
       </c>
       <c r="T7">
-        <v>0.1065770503606473</v>
+        <v>0.0006313950568739441</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>33.6936174096772</v>
+        <v>0.2635153333333333</v>
       </c>
       <c r="H8">
-        <v>33.6936174096772</v>
+        <v>0.790546</v>
       </c>
       <c r="I8">
-        <v>0.8559175962304176</v>
+        <v>0.005688439672135256</v>
       </c>
       <c r="J8">
-        <v>0.8559175962304176</v>
+        <v>0.005688439672135256</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>63.916058847432</v>
+        <v>73.27090866666667</v>
       </c>
       <c r="N8">
-        <v>63.916058847432</v>
+        <v>219.812726</v>
       </c>
       <c r="O8">
-        <v>0.7317559854994725</v>
+        <v>0.7433568483938062</v>
       </c>
       <c r="P8">
-        <v>0.7317559854994725</v>
+        <v>0.7433568483938062</v>
       </c>
       <c r="Q8">
-        <v>2153.563233139787</v>
+        <v>19.30800792093289</v>
       </c>
       <c r="R8">
-        <v>2153.563233139787</v>
+        <v>173.772071288396</v>
       </c>
       <c r="S8">
-        <v>0.6263228241359289</v>
+        <v>0.00422854058695676</v>
       </c>
       <c r="T8">
-        <v>0.6263228241359289</v>
+        <v>0.00422854058695676</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,557 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.2635153333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.790546</v>
+      </c>
+      <c r="I9">
+        <v>0.005688439672135256</v>
+      </c>
+      <c r="J9">
+        <v>0.005688439672135256</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.513102666666667</v>
+      </c>
+      <c r="N9">
+        <v>7.539308</v>
+      </c>
+      <c r="O9">
+        <v>0.02549623188763971</v>
+      </c>
+      <c r="P9">
+        <v>0.02549623188763971</v>
+      </c>
+      <c r="Q9">
+        <v>0.6622410869075556</v>
+      </c>
+      <c r="R9">
+        <v>5.960169782168</v>
+      </c>
+      <c r="S9">
+        <v>0.0001450337769596097</v>
+      </c>
+      <c r="T9">
+        <v>0.0001450337769596097</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>39.52820233333333</v>
+      </c>
+      <c r="H10">
+        <v>118.584607</v>
+      </c>
+      <c r="I10">
+        <v>0.8532854292645441</v>
+      </c>
+      <c r="J10">
+        <v>0.8532854292645441</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>11.84297166666667</v>
+      </c>
+      <c r="N10">
+        <v>35.528915</v>
+      </c>
+      <c r="O10">
+        <v>0.1201507426883529</v>
+      </c>
+      <c r="P10">
+        <v>0.1201507426883529</v>
+      </c>
+      <c r="Q10">
+        <v>468.1313802679338</v>
+      </c>
+      <c r="R10">
+        <v>4213.182422411405</v>
+      </c>
+      <c r="S10">
+        <v>0.102522878051285</v>
+      </c>
+      <c r="T10">
+        <v>0.102522878051285</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>39.52820233333333</v>
+      </c>
+      <c r="H11">
+        <v>118.584607</v>
+      </c>
+      <c r="I11">
+        <v>0.8532854292645441</v>
+      </c>
+      <c r="J11">
+        <v>0.8532854292645441</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>10.940628</v>
+      </c>
+      <c r="N11">
+        <v>32.821884</v>
+      </c>
+      <c r="O11">
+        <v>0.1109961770302011</v>
+      </c>
+      <c r="P11">
+        <v>0.1109961770302011</v>
+      </c>
+      <c r="Q11">
+        <v>432.4633572377319</v>
+      </c>
+      <c r="R11">
+        <v>3892.170215139588</v>
+      </c>
+      <c r="S11">
+        <v>0.09471142056393848</v>
+      </c>
+      <c r="T11">
+        <v>0.0947114205639385</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>39.52820233333333</v>
+      </c>
+      <c r="H12">
+        <v>118.584607</v>
+      </c>
+      <c r="I12">
+        <v>0.8532854292645441</v>
+      </c>
+      <c r="J12">
+        <v>0.8532854292645441</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>73.27090866666667</v>
+      </c>
+      <c r="N12">
+        <v>219.812726</v>
+      </c>
+      <c r="O12">
+        <v>0.7433568483938062</v>
+      </c>
+      <c r="P12">
+        <v>0.7433568483938062</v>
+      </c>
+      <c r="Q12">
+        <v>2896.267302923187</v>
+      </c>
+      <c r="R12">
+        <v>26066.40572630868</v>
+      </c>
+      <c r="S12">
+        <v>0.6342955674784476</v>
+      </c>
+      <c r="T12">
+        <v>0.6342955674784476</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>39.52820233333333</v>
+      </c>
+      <c r="H13">
+        <v>118.584607</v>
+      </c>
+      <c r="I13">
+        <v>0.8532854292645441</v>
+      </c>
+      <c r="J13">
+        <v>0.8532854292645441</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.513102666666667</v>
+      </c>
+      <c r="N13">
+        <v>7.539308</v>
+      </c>
+      <c r="O13">
+        <v>0.02549623188763971</v>
+      </c>
+      <c r="P13">
+        <v>0.02549623188763971</v>
+      </c>
+      <c r="Q13">
+        <v>99.33843069243956</v>
+      </c>
+      <c r="R13">
+        <v>894.0458762319561</v>
+      </c>
+      <c r="S13">
+        <v>0.02175556317087301</v>
+      </c>
+      <c r="T13">
+        <v>0.02175556317087301</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>33.6936174096772</v>
-      </c>
-      <c r="H9">
-        <v>33.6936174096772</v>
-      </c>
-      <c r="I9">
-        <v>0.8559175962304176</v>
-      </c>
-      <c r="J9">
-        <v>0.8559175962304176</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1.80702897861173</v>
-      </c>
-      <c r="N9">
-        <v>1.80702897861173</v>
-      </c>
-      <c r="O9">
-        <v>0.02068813839455401</v>
-      </c>
-      <c r="P9">
-        <v>0.02068813839455401</v>
-      </c>
-      <c r="Q9">
-        <v>60.88534305354339</v>
-      </c>
-      <c r="R9">
-        <v>60.88534305354339</v>
-      </c>
-      <c r="S9">
-        <v>0.01770734168514888</v>
-      </c>
-      <c r="T9">
-        <v>0.01770734168514888</v>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.5490216666666666</v>
+      </c>
+      <c r="H14">
+        <v>1.647065</v>
+      </c>
+      <c r="I14">
+        <v>0.01185159356771833</v>
+      </c>
+      <c r="J14">
+        <v>0.01185159356771833</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>11.84297166666667</v>
+      </c>
+      <c r="N14">
+        <v>35.528915</v>
+      </c>
+      <c r="O14">
+        <v>0.1201507426883529</v>
+      </c>
+      <c r="P14">
+        <v>0.1201507426883529</v>
+      </c>
+      <c r="Q14">
+        <v>6.502048042719443</v>
+      </c>
+      <c r="R14">
+        <v>58.518432384475</v>
+      </c>
+      <c r="S14">
+        <v>0.001423977769201864</v>
+      </c>
+      <c r="T14">
+        <v>0.001423977769201864</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.5490216666666666</v>
+      </c>
+      <c r="H15">
+        <v>1.647065</v>
+      </c>
+      <c r="I15">
+        <v>0.01185159356771833</v>
+      </c>
+      <c r="J15">
+        <v>0.01185159356771833</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>10.940628</v>
+      </c>
+      <c r="N15">
+        <v>32.821884</v>
+      </c>
+      <c r="O15">
+        <v>0.1109961770302011</v>
+      </c>
+      <c r="P15">
+        <v>0.1109961770302011</v>
+      </c>
+      <c r="Q15">
+        <v>6.006641818939999</v>
+      </c>
+      <c r="R15">
+        <v>54.05977637045999</v>
+      </c>
+      <c r="S15">
+        <v>0.001315481577732457</v>
+      </c>
+      <c r="T15">
+        <v>0.001315481577732457</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.5490216666666666</v>
+      </c>
+      <c r="H16">
+        <v>1.647065</v>
+      </c>
+      <c r="I16">
+        <v>0.01185159356771833</v>
+      </c>
+      <c r="J16">
+        <v>0.01185159356771833</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>73.27090866666667</v>
+      </c>
+      <c r="N16">
+        <v>219.812726</v>
+      </c>
+      <c r="O16">
+        <v>0.7433568483938062</v>
+      </c>
+      <c r="P16">
+        <v>0.7433568483938062</v>
+      </c>
+      <c r="Q16">
+        <v>40.22731639435445</v>
+      </c>
+      <c r="R16">
+        <v>362.04584754919</v>
+      </c>
+      <c r="S16">
+        <v>0.008809963242943404</v>
+      </c>
+      <c r="T16">
+        <v>0.008809963242943405</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.5490216666666666</v>
+      </c>
+      <c r="H17">
+        <v>1.647065</v>
+      </c>
+      <c r="I17">
+        <v>0.01185159356771833</v>
+      </c>
+      <c r="J17">
+        <v>0.01185159356771833</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.513102666666667</v>
+      </c>
+      <c r="N17">
+        <v>7.539308</v>
+      </c>
+      <c r="O17">
+        <v>0.02549623188763971</v>
+      </c>
+      <c r="P17">
+        <v>0.02549623188763971</v>
+      </c>
+      <c r="Q17">
+        <v>1.379747814557778</v>
+      </c>
+      <c r="R17">
+        <v>12.41773033102</v>
+      </c>
+      <c r="S17">
+        <v>0.0003021709778406058</v>
+      </c>
+      <c r="T17">
+        <v>0.0003021709778406058</v>
       </c>
     </row>
   </sheetData>
